--- a/transport costs.xlsx
+++ b/transport costs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Collis\Documents\Papers\mapping paper\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E4C7A-B50C-4CD5-906A-0D586E2B4276}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB25399-FDDF-4F2D-B158-8175A69B6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{5AAB4BBA-962A-49E4-AEB4-D60903ACD112}"/>
+    <workbookView xWindow="-28920" yWindow="900" windowWidth="29040" windowHeight="15840" xr2:uid="{5AAB4BBA-962A-49E4-AEB4-D60903ACD112}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>total axis</t>
   </si>
@@ -171,84 +172,6 @@
     <t>y (USD/kg)</t>
   </si>
   <si>
-    <r>
-      <t>y = -3.503E-08x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 2.417E-04x + 9.122E-01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y = -2.633E-09x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 4.357E-05x + 1.242E-01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y = -2.990E-09x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF595959"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + 3.319E-05x + 1.054E-01</t>
-    </r>
-  </si>
-  <si>
     <t>h2 decentralised</t>
   </si>
   <si>
@@ -287,12 +210,95 @@
   <si>
     <t>10 USD/kg</t>
   </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">3.503E-08 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* ship_dist ** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2.417E-04 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* ship_dist + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>9.122E-01</t>
+    </r>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>y = 1.353E-01ln(x) + 2.236E-01</t>
+  </si>
+  <si>
+    <t>y = 3.404E-02ln(x) - 5.458E-02</t>
+  </si>
+  <si>
+    <t>y = 2.323E-02ln(x) - 1.523E-02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,12 +322,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -344,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -352,6 +362,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,8 +867,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -972,8 +984,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1084,8 +1095,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2248,6 +2258,439 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test!$A$4:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$B$4:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.91220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2976999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3293999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2910999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2456999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1023999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88909999999999989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75619999999999965</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60579999999999978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43790000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25249999999999961</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9599999999999533E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.17080000000000062</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.4087000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.66410000000000025</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.93700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2274000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5353000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.8607</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2036000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.5640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.9419000000000008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.3373000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-274A-419A-8ABA-A30C5D1FA65E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1696441184"/>
+        <c:axId val="1696430784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1696441184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1696430784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1696430784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1696441184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2368,6 +2811,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3401,6 +3884,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4354,6 +5353,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5BF8A6-F366-4A56-BB27-B9834441E167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4653,17 +5693,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C992AA-FA9E-4F0A-804A-2B4FB7656B26}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4674,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -4688,7 +5728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4707,7 +5747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4726,10 +5766,10 @@
         <v>8.2474226804123724E-2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4748,7 +5788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4767,10 +5807,10 @@
         <v>0.12371134020618557</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4789,7 +5829,7 @@
         <v>1.1649484536082475</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4800,7 +5840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>41</v>
       </c>
@@ -4814,7 +5854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +5873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -4854,10 +5894,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4876,7 +5916,7 @@
         <v>0.13402061855670105</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4895,7 +5935,7 @@
         <v>0.16494845360824745</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -4914,7 +5954,7 @@
         <v>0.1752577319587629</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4933,10 +5973,10 @@
         <v>0.95876288659793829</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4955,7 +5995,7 @@
         <v>1.1340206185567012</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -4974,7 +6014,7 @@
         <v>1.2577319587628866</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4993,7 +6033,7 @@
         <v>1.3195876288659796</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5012,10 +6052,10 @@
         <v>0.13402061855670105</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5034,7 +6074,7 @@
         <v>0.16494845360824745</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -5053,7 +6093,7 @@
         <v>0.2061855670103093</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -5072,7 +6112,7 @@
         <v>0.22680412371134023</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -5080,7 +6120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="C28" t="s">
         <v>42</v>
       </c>
@@ -5088,7 +6128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +6140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -5112,7 +6152,7 @@
         <v>1.0206185567010311</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -5124,7 +6164,7 @@
         <v>0.41237113402061859</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -5136,7 +6176,7 @@
         <v>1.0309278350515465</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -5144,7 +6184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5152,7 +6192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5164,7 +6204,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -5176,7 +6216,7 @@
         <v>0.77272727272727271</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -5188,7 +6228,7 @@
         <v>0.97727272727272729</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -5200,7 +6240,7 @@
         <v>1.0227272727272727</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -5212,9 +6252,9 @@
         <v>2.1363636363636362</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>0.05</v>
@@ -5224,9 +6264,9 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>0.05</v>
@@ -5236,10 +6276,10 @@
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="D43" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -5250,7 +6290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="B46" t="s">
         <v>41</v>
       </c>
@@ -5264,7 +6304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5283,7 +6323,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -5302,10 +6342,10 @@
         <v>6.6371681415929196E-2</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -5324,7 +6364,7 @@
         <v>0.44247787610619466</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -5343,10 +6383,10 @@
         <v>0.33185840707964598</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -5365,7 +6405,7 @@
         <v>1.8362831858407078</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -5384,10 +6424,10 @@
         <v>0.13274336283185839</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -5406,7 +6446,7 @@
         <v>0.42035398230088494</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -5425,10 +6465,10 @@
         <v>0.13274336283185839</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -5447,7 +6487,7 @@
         <v>0.84070796460176989</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -5466,10 +6506,10 @@
         <v>6.6371681415929196E-2</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -5488,7 +6528,7 @@
         <v>0.90707964601769908</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -5507,10 +6547,10 @@
         <v>4.4247787610619468E-2</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -5529,15 +6569,15 @@
         <v>0.33185840707964598</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="18.75">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
         <v>42</v>
       </c>
@@ -5545,7 +6585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +6597,7 @@
         <v>7.6804123711340209</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -5569,7 +6609,7 @@
         <v>0.11340206185567012</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -5581,9 +6621,9 @@
         <v>0.10309278350515465</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C66">
         <v>0.85</v>
@@ -5593,7 +6633,7 @@
         <v>0.87628865979381454</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5605,7 +6645,7 @@
         <v>7.6804123711340209</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -5617,7 +6657,7 @@
         <v>0.11340206185567012</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -5629,9 +6669,9 @@
         <v>0.10309278350515465</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C71">
         <v>0.85</v>
@@ -5639,6 +6679,345 @@
       <c r="D71">
         <f t="shared" si="13"/>
         <v>0.87628865979381454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA43FCFA-8632-487A-B782-0115DD489600}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>-0.000000035*(A4^2)+0.0002417*A4+0.9122</f>
+        <v>0.91220000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f>A4+500</f>
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B34" si="0">-0.000000035*(A5^2)+0.0002417*A5+0.9122</f>
+        <v>1.0243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" ref="A6:A34" si="1">A5+500</f>
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.1189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.2556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.2976999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.3223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.3293999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.2910999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.2456999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.1827999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.1023999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>6500</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.0045000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.88909999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.75619999999999965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.60579999999999978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>8500</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.43790000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.25249999999999961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>9500</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>4.9599999999999533E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>-0.17080000000000062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>-0.4087000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>-0.66410000000000025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>11500</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>-0.93700000000000017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>-1.2274000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>-1.5353000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>-1.8607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>-2.2036000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>-2.5640000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>14500</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>-2.9419000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>-3.3373000000000013</v>
       </c>
     </row>
   </sheetData>
